--- a/academias/Matemáticas - Estadisticos 20242.xlsx
+++ b/academias/Matemáticas - Estadisticos 20242.xlsx
@@ -697,25 +697,25 @@
         <v>40</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F4">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H4" s="1">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="J4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -764,25 +764,25 @@
         <v>119</v>
       </c>
       <c r="E6">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="F6">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="G6" s="1">
-        <v>30.3</v>
+        <v>55.5</v>
       </c>
       <c r="H6" s="1">
-        <v>69.7</v>
+        <v>44.5</v>
       </c>
       <c r="I6" s="2">
-        <v>4.8</v>
+        <v>6.6</v>
       </c>
       <c r="J6">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>33.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2370,25 +2370,25 @@
         <v>1112</v>
       </c>
       <c r="E53">
-        <v>840</v>
+        <v>870</v>
       </c>
       <c r="F53">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="G53" s="1">
-        <v>75.5</v>
+        <v>78.2</v>
       </c>
       <c r="H53" s="1">
-        <v>24.5</v>
+        <v>21.8</v>
       </c>
       <c r="I53" s="2">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J53">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K53" s="1">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2459,25 +2459,25 @@
         <v>31</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H2" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2494,25 +2494,25 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F3">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>95.8</v>
       </c>
       <c r="H3" s="1">
-        <v>100</v>
+        <v>4.2</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="J3">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2529,25 +2529,25 @@
         <v>40</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H4" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="J4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2564,25 +2564,25 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F5">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>95.8</v>
       </c>
       <c r="H5" s="1">
-        <v>100</v>
+        <v>4.2</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2596,25 +2596,25 @@
         <v>119</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="F6">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>98.3</v>
       </c>
       <c r="H6" s="1">
-        <v>100</v>
+        <v>1.7</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="J6">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2631,25 +2631,25 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F7">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>65.2</v>
       </c>
       <c r="H7" s="1">
-        <v>100</v>
+        <v>34.8</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="J7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2666,25 +2666,25 @@
         <v>11</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F8">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>81.8</v>
       </c>
       <c r="H8" s="1">
-        <v>100</v>
+        <v>18.2</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="J8">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2698,25 +2698,25 @@
         <v>34</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F9">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>100</v>
+        <v>29.4</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="J9">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2733,25 +2733,25 @@
         <v>36</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F10">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>83.3</v>
       </c>
       <c r="H10" s="1">
-        <v>100</v>
+        <v>16.7</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="J10">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2768,25 +2768,25 @@
         <v>39</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F11">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>89.7</v>
       </c>
       <c r="H11" s="1">
-        <v>100</v>
+        <v>10.3</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="J11">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2803,25 +2803,25 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F12">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H12" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="J12">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2835,25 +2835,25 @@
         <v>99</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="F13">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>100</v>
+        <v>10.1</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="J13">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2870,25 +2870,25 @@
         <v>36</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F14">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>61.1</v>
       </c>
       <c r="H14" s="1">
-        <v>100</v>
+        <v>38.9</v>
       </c>
       <c r="I14" s="2">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="J14">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2905,25 +2905,25 @@
         <v>28</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F15">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>100</v>
+        <v>21.4</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="J15">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2940,25 +2940,25 @@
         <v>30</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F16">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>83.3</v>
       </c>
       <c r="H16" s="1">
-        <v>100</v>
+        <v>16.7</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="J16">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1">
-        <v>100</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2972,25 +2972,25 @@
         <v>94</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="F17">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>100</v>
+        <v>26.6</v>
       </c>
       <c r="I17" s="2">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="J17">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1">
-        <v>100</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -3007,25 +3007,25 @@
         <v>41</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="F18">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H18" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="2">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="J18">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -3042,25 +3042,25 @@
         <v>35</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F19">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H19" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I19" s="2">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="J19">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -3077,25 +3077,25 @@
         <v>39</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="F20">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="J20">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -3112,25 +3112,25 @@
         <v>36</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F21">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H21" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="2">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="J21">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -3144,25 +3144,25 @@
         <v>151</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="F22">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="2">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J22">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -3179,25 +3179,25 @@
         <v>20</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F23">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H23" s="1">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="I23" s="2">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="J23">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -3211,25 +3211,25 @@
         <v>20</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F24">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G24" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H24" s="1">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="I24" s="2">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="J24">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -3246,25 +3246,25 @@
         <v>19</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F25">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H25" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I25" s="2">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J25">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -3281,25 +3281,25 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F26">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H26" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="2">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="J26">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -3316,25 +3316,25 @@
         <v>28</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F27">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="G27" s="1">
-        <v>0</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="H27" s="1">
-        <v>100</v>
+        <v>7.1</v>
       </c>
       <c r="I27" s="2">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="J27">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -3351,25 +3351,25 @@
         <v>25</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F28">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="G28" s="1">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="H28" s="1">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="I28" s="2">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J28">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K28" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -3386,25 +3386,25 @@
         <v>25</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F29">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="G29" s="1">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="H29" s="1">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="I29" s="2">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="J29">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3418,25 +3418,25 @@
         <v>117</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="F30">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="G30" s="1">
-        <v>0</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="H30" s="1">
-        <v>100</v>
+        <v>5.1</v>
       </c>
       <c r="I30" s="2">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J30">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -3453,25 +3453,25 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F31">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G31" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="H31" s="1">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="I31" s="2">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="J31">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K31" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3488,25 +3488,25 @@
         <v>13</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F32">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G32" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J32">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K32" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -3523,25 +3523,25 @@
         <v>14</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F33">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G33" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H33" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="2">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="J33">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K33" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3558,25 +3558,25 @@
         <v>10</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F34">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G34" s="1">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H34" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I34" s="2">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="J34">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K34" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3590,25 +3590,25 @@
         <v>62</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F35">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="G35" s="1">
-        <v>0</v>
+        <v>93.5</v>
       </c>
       <c r="H35" s="1">
-        <v>100</v>
+        <v>6.5</v>
       </c>
       <c r="I35" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J35">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -3625,25 +3625,25 @@
         <v>34</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F36">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="G36" s="1">
-        <v>0</v>
+        <v>91.2</v>
       </c>
       <c r="H36" s="1">
-        <v>100</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I36" s="2">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="J36">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="K36" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -3660,25 +3660,25 @@
         <v>31</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F37">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="G37" s="1">
-        <v>0</v>
+        <v>96.8</v>
       </c>
       <c r="H37" s="1">
-        <v>100</v>
+        <v>3.2</v>
       </c>
       <c r="I37" s="2">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="J37">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K37" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -3695,25 +3695,25 @@
         <v>38</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F38">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="G38" s="1">
-        <v>0</v>
+        <v>94.7</v>
       </c>
       <c r="H38" s="1">
-        <v>100</v>
+        <v>5.3</v>
       </c>
       <c r="I38" s="2">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J38">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="K38" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -3730,25 +3730,25 @@
         <v>28</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F39">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="G39" s="1">
-        <v>0</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="H39" s="1">
-        <v>100</v>
+        <v>21.4</v>
       </c>
       <c r="I39" s="2">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="J39">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -3762,25 +3762,25 @@
         <v>131</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="F40">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="G40" s="1">
-        <v>0</v>
+        <v>90.8</v>
       </c>
       <c r="H40" s="1">
-        <v>100</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I40" s="2">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="J40">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="K40" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -3797,25 +3797,25 @@
         <v>31</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F41">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="G41" s="1">
-        <v>0</v>
+        <v>90.3</v>
       </c>
       <c r="H41" s="1">
-        <v>100</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I41" s="2">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="J41">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K41" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -3829,25 +3829,25 @@
         <v>31</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F42">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="G42" s="1">
-        <v>0</v>
+        <v>90.3</v>
       </c>
       <c r="H42" s="1">
-        <v>100</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I42" s="2">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="J42">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K42" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -3864,25 +3864,25 @@
         <v>17</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F43">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G43" s="1">
-        <v>0</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="H43" s="1">
-        <v>100</v>
+        <v>5.9</v>
       </c>
       <c r="I43" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J43">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K43" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3896,25 +3896,25 @@
         <v>17</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F44">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G44" s="1">
-        <v>0</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="H44" s="1">
-        <v>100</v>
+        <v>5.9</v>
       </c>
       <c r="I44" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J44">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K44" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -3931,25 +3931,25 @@
         <v>39</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F45">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="G45" s="1">
-        <v>0</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="H45" s="1">
-        <v>100</v>
+        <v>2.6</v>
       </c>
       <c r="I45" s="2">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J45">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K45" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3966,25 +3966,25 @@
         <v>49</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F46">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="G46" s="1">
-        <v>0</v>
+        <v>91.8</v>
       </c>
       <c r="H46" s="1">
-        <v>100</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I46" s="2">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="J46">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="K46" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -4001,25 +4001,25 @@
         <v>38</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F47">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="G47" s="1">
-        <v>0</v>
+        <v>84.2</v>
       </c>
       <c r="H47" s="1">
-        <v>100</v>
+        <v>15.8</v>
       </c>
       <c r="I47" s="2">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="J47">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="K47" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -4036,25 +4036,25 @@
         <v>28</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F48">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="G48" s="1">
-        <v>0</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="H48" s="1">
-        <v>100</v>
+        <v>3.6</v>
       </c>
       <c r="I48" s="2">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="J48">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K48" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -4071,25 +4071,25 @@
         <v>35</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F49">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="G49" s="1">
-        <v>0</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="H49" s="1">
-        <v>100</v>
+        <v>8.6</v>
       </c>
       <c r="I49" s="2">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="J49">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K49" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -4106,25 +4106,25 @@
         <v>31</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F50">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="G50" s="1">
-        <v>0</v>
+        <v>93.5</v>
       </c>
       <c r="H50" s="1">
-        <v>100</v>
+        <v>6.5</v>
       </c>
       <c r="I50" s="2">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="J50">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K50" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -4141,25 +4141,25 @@
         <v>17</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F51">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G51" s="1">
-        <v>0</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="H51" s="1">
-        <v>100</v>
+        <v>17.6</v>
       </c>
       <c r="I51" s="2">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="J51">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K51" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -4173,25 +4173,25 @@
         <v>237</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="F52">
-        <v>237</v>
+        <v>20</v>
       </c>
       <c r="G52" s="1">
-        <v>0</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="H52" s="1">
-        <v>100</v>
+        <v>8.4</v>
       </c>
       <c r="I52" s="2">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="J52">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="K52" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -4202,25 +4202,25 @@
         <v>1112</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1011</v>
       </c>
       <c r="F53">
-        <v>1112</v>
+        <v>101</v>
       </c>
       <c r="G53" s="1">
-        <v>0</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="H53" s="1">
-        <v>100</v>
+        <v>9.1</v>
       </c>
       <c r="I53" s="2">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="J53">
-        <v>1112</v>
+        <v>1</v>
       </c>
       <c r="K53" s="1">
-        <v>100</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -4291,19 +4291,19 @@
         <v>31</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>48.4</v>
+        <v>100</v>
       </c>
       <c r="H2" s="1">
-        <v>51.6</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>6.3</v>
+        <v>8.4</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -4326,19 +4326,19 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>50</v>
+        <v>95.8</v>
       </c>
       <c r="H3" s="1">
-        <v>50</v>
+        <v>4.2</v>
       </c>
       <c r="I3" s="2">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -4361,25 +4361,25 @@
         <v>40</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H4" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="J4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4396,19 +4396,19 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>37.5</v>
+        <v>95.8</v>
       </c>
       <c r="H5" s="1">
-        <v>62.5</v>
+        <v>4.2</v>
       </c>
       <c r="I5" s="2">
-        <v>6.4</v>
+        <v>8.5</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -4428,25 +4428,25 @@
         <v>119</v>
       </c>
       <c r="E6">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="F6">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1">
-        <v>30.3</v>
+        <v>98.3</v>
       </c>
       <c r="H6" s="1">
-        <v>69.7</v>
+        <v>1.7</v>
       </c>
       <c r="I6" s="2">
-        <v>4.8</v>
+        <v>8.5</v>
       </c>
       <c r="J6">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>33.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -4463,19 +4463,19 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" s="1">
-        <v>60.9</v>
+        <v>65.2</v>
       </c>
       <c r="H7" s="1">
-        <v>39.1</v>
+        <v>34.8</v>
       </c>
       <c r="I7" s="2">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -4498,19 +4498,19 @@
         <v>11</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" s="1">
-        <v>72.7</v>
+        <v>81.8</v>
       </c>
       <c r="H8" s="1">
-        <v>27.3</v>
+        <v>18.2</v>
       </c>
       <c r="I8" s="2">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -4530,19 +4530,19 @@
         <v>34</v>
       </c>
       <c r="E9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1">
-        <v>64.7</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>35.3</v>
+        <v>29.4</v>
       </c>
       <c r="I9" s="2">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -4565,19 +4565,19 @@
         <v>36</v>
       </c>
       <c r="E10">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F10">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G10" s="1">
-        <v>63.9</v>
+        <v>83.3</v>
       </c>
       <c r="H10" s="1">
-        <v>36.1</v>
+        <v>16.7</v>
       </c>
       <c r="I10" s="2">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -4600,19 +4600,19 @@
         <v>39</v>
       </c>
       <c r="E11">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G11" s="1">
-        <v>76.90000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="H11" s="1">
-        <v>23.1</v>
+        <v>10.3</v>
       </c>
       <c r="I11" s="2">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4635,19 +4635,19 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H12" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -4667,19 +4667,19 @@
         <v>99</v>
       </c>
       <c r="E13">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="F13">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G13" s="1">
-        <v>71.7</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>28.3</v>
+        <v>10.1</v>
       </c>
       <c r="I13" s="2">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -4702,19 +4702,19 @@
         <v>36</v>
       </c>
       <c r="E14">
+        <v>22</v>
+      </c>
+      <c r="F14">
         <v>14</v>
       </c>
-      <c r="F14">
-        <v>22</v>
-      </c>
       <c r="G14" s="1">
+        <v>61.1</v>
+      </c>
+      <c r="H14" s="1">
         <v>38.9</v>
       </c>
-      <c r="H14" s="1">
-        <v>61.1</v>
-      </c>
       <c r="I14" s="2">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -4737,19 +4737,19 @@
         <v>28</v>
       </c>
       <c r="E15">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G15" s="1">
-        <v>67.90000000000001</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>32.1</v>
+        <v>21.4</v>
       </c>
       <c r="I15" s="2">
-        <v>6.2</v>
+        <v>7.3</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -4772,19 +4772,19 @@
         <v>30</v>
       </c>
       <c r="E16">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G16" s="1">
-        <v>76.7</v>
+        <v>83.3</v>
       </c>
       <c r="H16" s="1">
-        <v>23.3</v>
+        <v>16.7</v>
       </c>
       <c r="I16" s="2">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -4804,19 +4804,19 @@
         <v>94</v>
       </c>
       <c r="E17">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="F17">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G17" s="1">
-        <v>59.6</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>40.4</v>
+        <v>26.6</v>
       </c>
       <c r="I17" s="2">
-        <v>6.3</v>
+        <v>7.1</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -4839,19 +4839,19 @@
         <v>41</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>97.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="H18" s="1">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="I18" s="2">
-        <v>8.9</v>
+        <v>9.5</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -4874,19 +4874,19 @@
         <v>35</v>
       </c>
       <c r="E19">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>97.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="H19" s="1">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="I19" s="2">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -4909,19 +4909,19 @@
         <v>39</v>
       </c>
       <c r="E20">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>94.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="H20" s="1">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="2">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -4944,19 +4944,19 @@
         <v>36</v>
       </c>
       <c r="E21">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>97.2</v>
+        <v>100</v>
       </c>
       <c r="H21" s="1">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="I21" s="2">
-        <v>8.5</v>
+        <v>9.4</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -4976,19 +4976,19 @@
         <v>151</v>
       </c>
       <c r="E22">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>96.7</v>
+        <v>100</v>
       </c>
       <c r="H22" s="1">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I22" s="2">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -5023,7 +5023,7 @@
         <v>40</v>
       </c>
       <c r="I23" s="2">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -5055,7 +5055,7 @@
         <v>40</v>
       </c>
       <c r="I24" s="2">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -5078,19 +5078,19 @@
         <v>19</v>
       </c>
       <c r="E25">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>94.7</v>
+        <v>100</v>
       </c>
       <c r="H25" s="1">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="I25" s="2">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -5113,19 +5113,19 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F26">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="H26" s="1">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="I26" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -5148,19 +5148,19 @@
         <v>28</v>
       </c>
       <c r="E27">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F27">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G27" s="1">
-        <v>75</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="H27" s="1">
-        <v>25</v>
+        <v>7.1</v>
       </c>
       <c r="I27" s="2">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -5195,7 +5195,7 @@
         <v>8</v>
       </c>
       <c r="I28" s="2">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -5218,19 +5218,19 @@
         <v>25</v>
       </c>
       <c r="E29">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G29" s="1">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H29" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I29" s="2">
-        <v>7.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -5250,19 +5250,19 @@
         <v>117</v>
       </c>
       <c r="E30">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="F30">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G30" s="1">
-        <v>79.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="H30" s="1">
-        <v>20.5</v>
+        <v>5.1</v>
       </c>
       <c r="I30" s="2">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -5285,19 +5285,19 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G31" s="1">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H31" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I31" s="2">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -5320,19 +5320,19 @@
         <v>13</v>
       </c>
       <c r="E32">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="1">
-        <v>92.3</v>
+        <v>100</v>
       </c>
       <c r="H32" s="1">
-        <v>7.7</v>
+        <v>0</v>
       </c>
       <c r="I32" s="2">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -5355,19 +5355,19 @@
         <v>14</v>
       </c>
       <c r="E33">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" s="1">
-        <v>92.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="H33" s="1">
-        <v>7.1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="2">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -5402,7 +5402,7 @@
         <v>30</v>
       </c>
       <c r="I34" s="2">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -5422,19 +5422,19 @@
         <v>62</v>
       </c>
       <c r="E35">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35" s="1">
+        <v>93.5</v>
+      </c>
+      <c r="H35" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="I35" s="2">
         <v>8</v>
-      </c>
-      <c r="G35" s="1">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="H35" s="1">
-        <v>12.9</v>
-      </c>
-      <c r="I35" s="2">
-        <v>7.7</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -5469,7 +5469,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="I36" s="2">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -5504,7 +5504,7 @@
         <v>3.2</v>
       </c>
       <c r="I37" s="2">
-        <v>8.4</v>
+        <v>8.9</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -5527,19 +5527,19 @@
         <v>38</v>
       </c>
       <c r="E38">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G38" s="1">
-        <v>89.5</v>
+        <v>94.7</v>
       </c>
       <c r="H38" s="1">
-        <v>10.5</v>
+        <v>5.3</v>
       </c>
       <c r="I38" s="2">
-        <v>8.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -5574,7 +5574,7 @@
         <v>21.4</v>
       </c>
       <c r="I39" s="2">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -5594,19 +5594,19 @@
         <v>131</v>
       </c>
       <c r="E40">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F40">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G40" s="1">
-        <v>89.3</v>
+        <v>90.8</v>
       </c>
       <c r="H40" s="1">
-        <v>10.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I40" s="2">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -5629,19 +5629,19 @@
         <v>31</v>
       </c>
       <c r="E41">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F41">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G41" s="1">
-        <v>77.40000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="H41" s="1">
-        <v>22.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I41" s="2">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -5661,19 +5661,19 @@
         <v>31</v>
       </c>
       <c r="E42">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F42">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G42" s="1">
-        <v>77.40000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="H42" s="1">
-        <v>22.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I42" s="2">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -5763,19 +5763,19 @@
         <v>39</v>
       </c>
       <c r="E45">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F45">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G45" s="1">
-        <v>87.2</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="H45" s="1">
-        <v>12.8</v>
+        <v>2.6</v>
       </c>
       <c r="I45" s="2">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -5798,19 +5798,19 @@
         <v>49</v>
       </c>
       <c r="E46">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F46">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G46" s="1">
-        <v>71.40000000000001</v>
+        <v>91.8</v>
       </c>
       <c r="H46" s="1">
-        <v>28.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I46" s="2">
-        <v>7.1</v>
+        <v>8</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -5833,19 +5833,19 @@
         <v>38</v>
       </c>
       <c r="E47">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F47">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G47" s="1">
-        <v>68.40000000000001</v>
+        <v>84.2</v>
       </c>
       <c r="H47" s="1">
-        <v>31.6</v>
+        <v>15.8</v>
       </c>
       <c r="I47" s="2">
-        <v>7.2</v>
+        <v>8.1</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -5868,19 +5868,19 @@
         <v>28</v>
       </c>
       <c r="E48">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" s="1">
-        <v>100</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="H48" s="1">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="I48" s="2">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -5915,7 +5915,7 @@
         <v>8.6</v>
       </c>
       <c r="I49" s="2">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -5938,19 +5938,19 @@
         <v>31</v>
       </c>
       <c r="E50">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F50">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G50" s="1">
-        <v>80.59999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="H50" s="1">
-        <v>19.4</v>
+        <v>6.5</v>
       </c>
       <c r="I50" s="2">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -5973,19 +5973,19 @@
         <v>17</v>
       </c>
       <c r="E51">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G51" s="1">
-        <v>76.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="H51" s="1">
-        <v>23.5</v>
+        <v>17.6</v>
       </c>
       <c r="I51" s="2">
-        <v>7.1</v>
+        <v>7.9</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -6005,19 +6005,19 @@
         <v>237</v>
       </c>
       <c r="E52">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="F52">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="G52" s="1">
-        <v>81.40000000000001</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="H52" s="1">
-        <v>18.6</v>
+        <v>8.4</v>
       </c>
       <c r="I52" s="2">
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -6034,25 +6034,25 @@
         <v>1112</v>
       </c>
       <c r="E53">
-        <v>840</v>
+        <v>1011</v>
       </c>
       <c r="F53">
-        <v>272</v>
+        <v>101</v>
       </c>
       <c r="G53" s="1">
-        <v>75.5</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="H53" s="1">
-        <v>24.5</v>
+        <v>9.1</v>
       </c>
       <c r="I53" s="2">
-        <v>7.2</v>
+        <v>8.1</v>
       </c>
       <c r="J53">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K53" s="1">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
